--- a/Test Data Driven/AI-Generated/TC11-Create and Copy API Key.xlsx
+++ b/Test Data Driven/AI-Generated/TC11-Create and Copy API Key.xlsx
@@ -446,15 +446,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="33" customWidth="1" min="1" max="1"/>
-    <col width="58" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="66" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>button_apiKeyActions_trNthChild</t>
+          <t>button_showApiKey_trNthChild</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/createNewApiKey-test-data</t>
+          <t>Data Files/AI-Generated/Common/createNewApiKeyWithName-test-data</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
